--- a/documentation/PA2595 gr 5 Timesheet diary.xlsx
+++ b/documentation/PA2595 gr 5 Timesheet diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sjab1-my.sharepoint.com/personal/christina_larsson_sj_se/Documents/Mina Dokument/Machine Learning Engineering PA2595 VT24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhasinibhanu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{99E2A9C3-32EF-4472-99DF-617ABF1D744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B1F8CC7-4339-4D72-BB04-C93E5585AAD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82F04A-0371-F248-B2CC-BC2554F0D080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{83158B9D-E87B-479B-8F08-99CA020ED4CB}"/>
+    <workbookView xWindow="9960" yWindow="2740" windowWidth="37380" windowHeight="21360" activeTab="2" xr2:uid="{83158B9D-E87B-479B-8F08-99CA020ED4CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Suhasini Aswath" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -101,13 +101,64 @@
   </si>
   <si>
     <t>Prepare presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architecture </t>
+  </si>
+  <si>
+    <t>Document stages of architecture</t>
+  </si>
+  <si>
+    <t>Understanding Data</t>
+  </si>
+  <si>
+    <t>Understanding data processing</t>
+  </si>
+  <si>
+    <t>Understanding model</t>
+  </si>
+  <si>
+    <t>Feature set</t>
+  </si>
+  <si>
+    <t>Data processing</t>
+  </si>
+  <si>
+    <t>Backend service - explore</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Testing service using hardcoded data</t>
+  </si>
+  <si>
+    <t>unit test implementation</t>
+  </si>
+  <si>
+    <t>Backend service Implementation</t>
+  </si>
+  <si>
+    <t>Error in getting response</t>
+  </si>
+  <si>
+    <t>Fixing errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project presentation </t>
+  </si>
+  <si>
+    <t>Finalize docker Service</t>
+  </si>
+  <si>
+    <t>Finalize docker service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +166,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF305496"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,31 +200,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -176,10 +241,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9336AD52-1904-455A-AAFD-EB6892E0D44D}" name="Tabell13" displayName="Tabell13" ref="A1:C38" totalsRowCount="1">
-  <autoFilter ref="A1:C37" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9336AD52-1904-455A-AAFD-EB6892E0D44D}" name="Tabell13" displayName="Tabell13" ref="A1:C41" totalsRowCount="1">
+  <autoFilter ref="A1:C40" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C347CB41-086E-4D4F-A9D7-7A0C6B1C2DA9}" name="Date" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C347CB41-086E-4D4F-A9D7-7A0C6B1C2DA9}" name="Date" dataDxfId="5" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2CD70E6F-8527-484B-9A95-5B7B60E7DE2E}" name="Hours" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{542C8B1B-C6EB-4E62-B031-3B903D4B0CD0}" name="Activity"/>
   </tableColumns>
@@ -191,7 +256,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4B77A74-86D6-4324-A9CE-262E33DCBF7E}" name="Tabell134" displayName="Tabell134" ref="A1:C38" totalsRowCount="1">
   <autoFilter ref="A1:C37" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FC7311DE-DDB6-4A24-8A59-E695CB8D4877}" name="Date" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FC7311DE-DDB6-4A24-8A59-E695CB8D4877}" name="Date" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="2" xr3:uid="{8597F145-9DBC-4197-8C32-80AD09A10FE8}" name="Hours" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{E26DF6EF-CE51-4286-9271-85BF44E72F8B}" name="Activity"/>
   </tableColumns>
@@ -203,7 +268,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}" name="Tabell1" displayName="Tabell1" ref="A1:C41" totalsRowCount="1">
   <autoFilter ref="A1:C40" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{123B19D9-ACC4-433E-8103-EAB723996B26}" name="Date" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{123B19D9-ACC4-433E-8103-EAB723996B26}" name="Date" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{57AF72C8-51CE-438B-911D-FF205DD53E0C}" name="Hours" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{CD6413C7-362C-4B91-B535-78B6F0031799}" name="Activity"/>
   </tableColumns>
@@ -212,9 +277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +317,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,19 +573,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1784AD43-94B8-415E-964F-C548356D14E4}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,62 +597,150 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45334</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>45344</v>
       </c>
-      <c r="B10">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45360</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45363</v>
       </c>
@@ -594,120 +748,289 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45385</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45388</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>45417</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>45420</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>45428</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>45431</v>
       </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41">
         <f>SUBTOTAL(109,Tabell13[Hours])</f>
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -727,13 +1050,13 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,13 +1067,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45334</v>
       </c>
@@ -761,22 +1084,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45344</v>
       </c>
@@ -787,19 +1110,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45363</v>
       </c>
@@ -810,22 +1133,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45385</v>
       </c>
@@ -836,25 +1159,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45417</v>
       </c>
@@ -865,7 +1188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -876,22 +1199,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45427</v>
       </c>
@@ -902,7 +1225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45428</v>
       </c>
@@ -913,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45431</v>
       </c>
@@ -924,7 +1247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38">
         <f>SUBTOTAL(109,Tabell134[Hours])</f>
@@ -945,16 +1268,16 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45329</v>
       </c>
@@ -976,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45330</v>
       </c>
@@ -987,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45334</v>
       </c>
@@ -998,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45336</v>
       </c>
@@ -1009,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45337</v>
       </c>
@@ -1020,7 +1343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45339</v>
       </c>
@@ -1031,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45341</v>
       </c>
@@ -1042,7 +1365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45342</v>
       </c>
@@ -1053,7 +1376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45343</v>
       </c>
@@ -1064,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45344</v>
       </c>
@@ -1075,7 +1398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45357</v>
       </c>
@@ -1086,7 +1409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45359</v>
       </c>
@@ -1097,7 +1420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45360</v>
       </c>
@@ -1108,7 +1431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45363</v>
       </c>
@@ -1119,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45363</v>
       </c>
@@ -1130,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45370</v>
       </c>
@@ -1141,7 +1464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45371</v>
       </c>
@@ -1152,7 +1475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45374</v>
       </c>
@@ -1163,7 +1486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45375</v>
       </c>
@@ -1174,7 +1497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45385</v>
       </c>
@@ -1185,7 +1508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45386</v>
       </c>
@@ -1196,7 +1519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45387</v>
       </c>
@@ -1207,7 +1530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45388</v>
       </c>
@@ -1218,7 +1541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45390</v>
       </c>
@@ -1229,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45391</v>
       </c>
@@ -1240,7 +1563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45392</v>
       </c>
@@ -1251,7 +1574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45412</v>
       </c>
@@ -1262,7 +1585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45414</v>
       </c>
@@ -1273,7 +1596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45417</v>
       </c>
@@ -1284,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -1295,7 +1618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45422</v>
       </c>
@@ -1306,7 +1629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45423</v>
       </c>
@@ -1317,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45424</v>
       </c>
@@ -1328,7 +1651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45425</v>
       </c>
@@ -1339,7 +1662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45426</v>
       </c>
@@ -1350,7 +1673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45427</v>
       </c>
@@ -1361,7 +1684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45428</v>
       </c>
@@ -1372,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45430</v>
       </c>
@@ -1383,7 +1706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45431</v>
       </c>
@@ -1394,7 +1717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41">
         <f>SUBTOTAL(109,Tabell1[Hours])</f>

--- a/documentation/PA2595 gr 5 Timesheet diary.xlsx
+++ b/documentation/PA2595 gr 5 Timesheet diary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhasinibhanu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chowdhuryz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82F04A-0371-F248-B2CC-BC2554F0D080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5378CFEC-B718-934A-B91A-B7BF3F30E812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="2740" windowWidth="37380" windowHeight="21360" activeTab="2" xr2:uid="{83158B9D-E87B-479B-8F08-99CA020ED4CB}"/>
+    <workbookView xWindow="-57700" yWindow="1940" windowWidth="34560" windowHeight="21360" activeTab="1" xr2:uid="{83158B9D-E87B-479B-8F08-99CA020ED4CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Suhasini Aswath" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,81 @@
   </si>
   <si>
     <t>Finalize docker service</t>
+  </si>
+  <si>
+    <t>Prepare Presentation</t>
+  </si>
+  <si>
+    <t>Project report</t>
+  </si>
+  <si>
+    <t>Implementing logic to connect frontend and backend</t>
+  </si>
+  <si>
+    <t>Fixing backend service</t>
+  </si>
+  <si>
+    <t>Designing architecture of the project</t>
+  </si>
+  <si>
+    <t>Brainstorming project idea</t>
+  </si>
+  <si>
+    <t>Online research on similar datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding of TRV Dataset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding of TRV open APIs </t>
+  </si>
+  <si>
+    <t>Programming data loading from TRV in Python</t>
+  </si>
+  <si>
+    <t>Working on project report in LaTeX</t>
+  </si>
+  <si>
+    <t>Drawing architecture figures in Draw.io</t>
+  </si>
+  <si>
+    <t>Implementing weight dumping logic in Python</t>
+  </si>
+  <si>
+    <t>Writing project report in Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing logic to load model weights </t>
+  </si>
+  <si>
+    <t>Installing Jenkins locally on Docker container</t>
+  </si>
+  <si>
+    <t>CI/CD pipeline in Jenkins</t>
+  </si>
+  <si>
+    <t>Fixing connection of Jenkins with private Github repository</t>
+  </si>
+  <si>
+    <t>Programming web service in Python Flask for prediction of train delay</t>
+  </si>
+  <si>
+    <t>Swagger API documentation</t>
+  </si>
+  <si>
+    <t>Writing unit tests and refactoring code</t>
+  </si>
+  <si>
+    <t>Programming data preprocessing logic in Flask (Part 2)</t>
+  </si>
+  <si>
+    <t>Programming data preprocessing logic in Flask (Part 1)</t>
+  </si>
+  <si>
+    <t>Implementing random forest classifier in Scikit-Lean (Part 1)</t>
+  </si>
+  <si>
+    <t>Implementing random forest classifier in Scikit-Lean (Part 2)</t>
   </si>
 </sst>
 </file>
@@ -213,7 +288,7 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
@@ -222,7 +297,7 @@
       <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
@@ -244,7 +319,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9336AD52-1904-455A-AAFD-EB6892E0D44D}" name="Tabell13" displayName="Tabell13" ref="A1:C41" totalsRowCount="1">
   <autoFilter ref="A1:C40" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C347CB41-086E-4D4F-A9D7-7A0C6B1C2DA9}" name="Date" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C347CB41-086E-4D4F-A9D7-7A0C6B1C2DA9}" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2CD70E6F-8527-484B-9A95-5B7B60E7DE2E}" name="Hours" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{542C8B1B-C6EB-4E62-B031-3B903D4B0CD0}" name="Activity"/>
   </tableColumns>
@@ -253,10 +328,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4B77A74-86D6-4324-A9CE-262E33DCBF7E}" name="Tabell134" displayName="Tabell134" ref="A1:C38" totalsRowCount="1">
-  <autoFilter ref="A1:C37" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4B77A74-86D6-4324-A9CE-262E33DCBF7E}" name="Tabell134" displayName="Tabell134" ref="A1:C36" totalsRowCount="1">
+  <autoFilter ref="A1:C35" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FC7311DE-DDB6-4A24-8A59-E695CB8D4877}" name="Date" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FC7311DE-DDB6-4A24-8A59-E695CB8D4877}" name="Date" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{8597F145-9DBC-4197-8C32-80AD09A10FE8}" name="Hours" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{E26DF6EF-CE51-4286-9271-85BF44E72F8B}" name="Activity"/>
   </tableColumns>
@@ -268,7 +343,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}" name="Tabell1" displayName="Tabell1" ref="A1:C41" totalsRowCount="1">
   <autoFilter ref="A1:C40" xr:uid="{D4864DD0-FD95-4AD1-9363-1C217BDDC3D0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{123B19D9-ACC4-433E-8103-EAB723996B26}" name="Date" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{123B19D9-ACC4-433E-8103-EAB723996B26}" name="Date" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{57AF72C8-51CE-438B-911D-FF205DD53E0C}" name="Hours" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{CD6413C7-362C-4B91-B535-78B6F0031799}" name="Activity"/>
   </tableColumns>
@@ -576,7 +651,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1044,16 +1119,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C25E72-ED4D-43D3-8BC0-263321EF2E79}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1068,190 +1143,384 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45344</v>
+        <v>45354</v>
       </c>
       <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45363</v>
+        <v>45377</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>45395</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45385</v>
+        <v>45401</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45417</v>
+        <v>45426</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45420</v>
+        <v>45427</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>45428</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>45431</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38">
         <f>SUBTOTAL(109,Tabell134[Hours])</f>
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1267,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCCF34B-0494-41C9-9CF2-3CF368917BCC}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
